--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-03-22T19:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DDCC-Folder-DesignationType.xlsx
+++ b/ValueSet-DDCC-Folder-DesignationType.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:58:03+00:00</t>
+    <t>2023-10-22T07:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -230,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
